--- a/Documentación/Psp's/Axel/InterfazConfiguración/OverallMetrics.xlsx
+++ b/Documentación/Psp's/Axel/InterfazConfiguración/OverallMetrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF3A466-5544-4E0E-AE83-21F18ADEB9B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5213356C-EF44-41E8-9B0D-B7EAA1945E81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
@@ -25,13 +25,13 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" odcFile="C:\Users\AxeelZR\Downloads\excel.iqy" name="excel" type="4" refreshedVersion="6" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FProyecto%2FIinterfazConfiguraci%25C3%25B3npsp2%2E1%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fsection%3D102%26frame%3Dcontent&amp;EXPORT=excel" htmlFormat="all"/>
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FProyecto%2FIinterfazConfiguraci%25C3%25B3npsp2%2E1%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D102&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>/Proyecto/IinterfazConfiguraciÃ³npsp2.1</t>
   </si>
@@ -102,7 +102,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:12 PM el 4/12/2018</t>
+    <t>Reporte generado a las 12:36 PM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1115,10 @@
         <v>10.6</v>
       </c>
       <c r="C8" s="7">
-        <v>7.22</v>
+        <v>12.9</v>
       </c>
       <c r="D8" s="7">
-        <v>9.18</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10">
-        <v>0.29305555555555557</v>
+        <v>0.18819444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>0.1673611111111111</v>
       </c>
       <c r="D10" s="10">
-        <v>0.40416666666666662</v>
+        <v>0.27499999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="7">
-        <v>69</v>
+        <v>38.5</v>
       </c>
       <c r="D15" s="7">
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,8 +1221,8 @@
       <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D16" s="12">
-        <v>1</v>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,10 +1233,10 @@
         <v>120</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7">
-        <v>89</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>0.187</v>
       </c>
       <c r="D18" s="15">
-        <v>0.18</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="D19" s="15">
-        <v>0.184</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>0.96</v>
       </c>
       <c r="D20" s="7">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>0.4</v>
       </c>
       <c r="D21" s="7">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
